--- a/doc/04_機能一覧_A５.xlsx
+++ b/doc/04_機能一覧_A５.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0564762F-CA98-4BCB-A8E4-1E88D13910DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB7D74-0B1D-4EDD-8843-0B469BD45AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -79,13 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項番</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
@@ -151,6 +144,551 @@
     <rPh sb="3" eb="5">
       <t>ミズキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録機能</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事頻度の管理機能</t>
+    <rPh sb="0" eb="4">
+      <t>カジヒンド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品の情報管理機能</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リマインド機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「今日やるタスク」「未達成タスク」のポップアップ表示</t>
+    <rPh sb="1" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミタッセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「今日やるタスク」「未達成タスク」「明日の家事」「一週間以内の日用品の購入予定」のリスト表示</t>
+    <rPh sb="18" eb="20">
+      <t>アシタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>イッシュウカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>コウニュウヨテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク管理機能</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時・時刻表示機能</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジコクヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時・時刻表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジコクヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時と時刻を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品、家事情報任意の登録</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カジジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示機能</t>
+    <rPh sb="0" eb="4">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <rPh sb="0" eb="4">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品、家事情報各一覧を表示</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カジジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録しているユーザーがログインできる</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「家事の種類」「目標頻度」登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「実施日」「目標頻度」の編集</t>
+    <rPh sb="1" eb="4">
+      <t>ジッシビ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モクヒョウヒンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品の「項目名」「商品名」「値段」「容量」「使い始め」「使い終わり」の登録</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「商品名」「値段」「容量」「使い始め」「使い終わり」の編集</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目以降前回までの使用期間の平均と使い始めの日付から次のなくなる日を予測する</t>
+    <rPh sb="1" eb="5">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した日付の家事情報、日用品情報の詳細表示</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カジジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規IDとパスワードを登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品情報編集</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品情報登録</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事情報編集</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事情報登録</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品の消費終了予定日予測</t>
+    <rPh sb="11" eb="13">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金銭管理機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出予定金額合計値表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費予定金額の合計値(1か月分)を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー上で商品の値段を日用品の消費終了予定日に表示する</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー上でタスク表示する</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出予定金額表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のポップアップ表示</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近タスクのリスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成済みタスク登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近タスクのうち実施有無の識別</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -609,20 +1147,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -634,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -672,245 +1212,427 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
@@ -1031,18 +1753,6 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
